--- a/manager-charlie-prototype/Assets/_Common/DataResources/MiniGame/MiniGameItem.xlsx
+++ b/manager-charlie-prototype/Assets/_Common/DataResources/MiniGame/MiniGameItem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\manager-charlie\manager-charlie-prototype\Assets\_Home\DataResources\MiniGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\manager-charlie\manager-charlie-prototype\Assets\_Common\DataResources\MiniGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,90 +42,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Fruits2</t>
+  </si>
+  <si>
+    <t>Fruits3</t>
+  </si>
+  <si>
+    <t>Fruits4</t>
+  </si>
+  <si>
+    <t>Fruits5</t>
+  </si>
+  <si>
+    <t>Fruits6</t>
+  </si>
+  <si>
+    <t>Fruits7</t>
+  </si>
+  <si>
+    <t>Fruits8</t>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_2</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_3</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_4</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_5</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_6</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_7</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_8</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_9</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_10</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_11</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_12</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_13</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_14</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_15</t>
+  </si>
+  <si>
+    <t>TXT_M1_ITEM_16</t>
+  </si>
+  <si>
+    <t>IsBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fruits1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fruits2</t>
-  </si>
-  <si>
-    <t>Fruits3</t>
-  </si>
-  <si>
-    <t>Fruits4</t>
-  </si>
-  <si>
-    <t>Fruits5</t>
-  </si>
-  <si>
-    <t>Fruits6</t>
-  </si>
-  <si>
-    <t>Fruits7</t>
-  </si>
-  <si>
-    <t>Fruits8</t>
-  </si>
-  <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Candle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_2</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_3</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_4</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_5</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_6</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_7</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_8</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_9</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_10</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_11</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_12</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_13</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_14</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_15</t>
-  </si>
-  <si>
-    <t>TXT_M1_ITEM_16</t>
   </si>
 </sst>
 </file>
@@ -492,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -505,7 +509,7 @@
     <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,229 +522,280 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1">
         <v>300</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
